--- a/forecast_summary_B08WPV5HS7.xlsx
+++ b/forecast_summary_B08WPV5HS7.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,6 +476,11 @@
           <t>Product Title</t>
         </is>
       </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -488,7 +493,7 @@
         <v>1.457572982171559</v>
       </c>
       <c r="D2" t="n">
-        <v>1.457572982498584</v>
+        <v>1.457572982497456</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -511,6 +516,9 @@
         <is>
           <t>Z590 AORUS ELITE</t>
         </is>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -524,7 +532,7 @@
         <v>0.9408673535429042</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9408673538832417</v>
+        <v>0.9408673539219647</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -547,6 +555,9 @@
         <is>
           <t>Z590 AORUS ELITE</t>
         </is>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -560,7 +571,7 @@
         <v>-0.2352628423335243</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.2352628419478991</v>
+        <v>-0.2352628419884398</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -583,6 +594,9 @@
         <is>
           <t>Z590 AORUS ELITE</t>
         </is>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -596,7 +610,7 @@
         <v>-0.726078140380096</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.7260781399909234</v>
+        <v>-0.7260781400117239</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -619,6 +633,9 @@
         <is>
           <t>Z590 AORUS ELITE</t>
         </is>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -632,7 +649,7 @@
         <v>0.4175764017450967</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4175764022085341</v>
+        <v>0.4175764022621178</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -655,6 +672,9 @@
         <is>
           <t>Z590 AORUS ELITE</t>
         </is>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -668,7 +688,7 @@
         <v>2.487063474878952</v>
       </c>
       <c r="D7" t="n">
-        <v>2.487063475480964</v>
+        <v>2.487063475488322</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -691,6 +711,9 @@
         <is>
           <t>Z590 AORUS ELITE</t>
         </is>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -704,7 +727,7 @@
         <v>3.614372477423586</v>
       </c>
       <c r="D8" t="n">
-        <v>3.614372511469551</v>
+        <v>3.614373366508598</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -727,6 +750,9 @@
         <is>
           <t>Z590 AORUS ELITE</t>
         </is>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -740,7 +766,7 @@
         <v>2.689917818298344</v>
       </c>
       <c r="D9" t="n">
-        <v>2.689921675671891</v>
+        <v>2.689922056917093</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -763,6 +789,9 @@
         <is>
           <t>Z590 AORUS ELITE</t>
         </is>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -776,7 +805,7 @@
         <v>0.6190500364976014</v>
       </c>
       <c r="D10" t="n">
-        <v>0.619051660204358</v>
+        <v>0.6190517838008995</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -799,6 +828,9 @@
         <is>
           <t>Z590 AORUS ELITE</t>
         </is>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -812,7 +844,7 @@
         <v>-0.5602414917102196</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.5602386566993217</v>
+        <v>-0.5602405029114192</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -835,6 +867,9 @@
         <is>
           <t>Z590 AORUS ELITE</t>
         </is>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -848,7 +883,7 @@
         <v>0.1978202760024605</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1978214667372148</v>
+        <v>0.197821424846674</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -871,6 +906,9 @@
         <is>
           <t>Z590 AORUS ELITE</t>
         </is>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -884,7 +922,7 @@
         <v>1.896819222492286</v>
       </c>
       <c r="D13" t="n">
-        <v>1.896835055921245</v>
+        <v>1.896833861587481</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -907,6 +945,9 @@
         <is>
           <t>Z590 AORUS ELITE</t>
         </is>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -920,7 +961,7 @@
         <v>2.641355970045787</v>
       </c>
       <c r="D14" t="n">
-        <v>2.641383746614108</v>
+        <v>2.641386484580913</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -943,6 +984,9 @@
         <is>
           <t>Z590 AORUS ELITE</t>
         </is>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -956,7 +1000,7 @@
         <v>1.653176170007273</v>
       </c>
       <c r="D15" t="n">
-        <v>1.653198919168379</v>
+        <v>1.653199843698651</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -979,6 +1023,9 @@
         <is>
           <t>Z590 AORUS ELITE</t>
         </is>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -992,7 +1039,7 @@
         <v>-0.04402620276434076</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.04402532917278336</v>
+        <v>-0.04402567316825901</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1015,6 +1062,9 @@
         <is>
           <t>Z590 AORUS ELITE</t>
         </is>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1028,7 +1078,7 @@
         <v>-0.8774037400244268</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.877382029849983</v>
+        <v>-0.8773899836243643</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1051,6 +1101,9 @@
         <is>
           <t>Z590 AORUS ELITE</t>
         </is>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1064,7 +1117,7 @@
         <v>-0.3798745197718979</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.3798631455333619</v>
+        <v>-0.3798671410474975</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1087,6 +1140,9 @@
         <is>
           <t>Z590 AORUS ELITE</t>
         </is>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1100,7 +1156,7 @@
         <v>0.5483545245460074</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5483722195753968</v>
+        <v>0.5483704936063223</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -1123,6 +1179,9 @@
         <is>
           <t>Z590 AORUS ELITE</t>
         </is>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1136,7 +1195,7 @@
         <v>0.8366574718313244</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8366886484356317</v>
+        <v>0.836685769311542</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -1159,6 +1218,9 @@
         <is>
           <t>Z590 AORUS ELITE</t>
         </is>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1172,7 +1234,7 @@
         <v>0.3828893245853757</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3829061949992038</v>
+        <v>0.3829040053190458</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -1195,6 +1257,9 @@
         <is>
           <t>Z590 AORUS ELITE</t>
         </is>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
